--- a/Unidad3/Datos/DatosCultivos.xlsx
+++ b/Unidad3/Datos/DatosCultivos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://itculiacanedu-my.sharepoint.com/personal/l21170454_culiacan_tecnm_mx/Documents/Semestre 9/TopicosIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edithriostorres/Desktop/REPOSITORISO/Topicos_IA/Unidad3/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B554DBA-2FBB-AA49-B115-73636FFE274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4347ADB2-0E54-2A43-9C41-40C97698238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{69622AD0-4FFB-E948-B30D-6FDFA641058E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{69622AD0-4FFB-E948-B30D-6FDFA641058E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,19 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="10">
   <si>
-    <t>Humedad (%)</t>
-  </si>
-  <si>
     <t>Cultivo</t>
-  </si>
-  <si>
-    <t>Elevación (m)</t>
-  </si>
-  <si>
-    <t>Salinidad (dS/m)</t>
-  </si>
-  <si>
-    <t>Temperatura (°C)</t>
   </si>
   <si>
     <t>Latitud</t>
@@ -66,6 +54,18 @@
   </si>
   <si>
     <t>Tomate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperatura </t>
+  </si>
+  <si>
+    <t>Elevación</t>
+  </si>
+  <si>
+    <t>Humedad</t>
+  </si>
+  <si>
+    <t>Salinidad</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,27 +522,27 @@
     <col min="7" max="7" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -550,7 +550,7 @@
         <v>35.4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4">
         <v>32.1</v>
@@ -573,7 +573,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4">
         <v>40.799999999999997</v>
@@ -596,7 +596,7 @@
         <v>43.3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
         <v>21.9</v>
@@ -619,7 +619,7 @@
         <v>36.299999999999997</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>41.7</v>
@@ -642,7 +642,7 @@
         <v>17.3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>31.8</v>
@@ -665,7 +665,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4">
         <v>32.6</v>
@@ -688,7 +688,7 @@
         <v>19.100000000000001</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4">
         <v>21.4</v>
@@ -711,7 +711,7 @@
         <v>28.3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
         <v>18.100000000000001</v>
@@ -734,7 +734,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4">
         <v>36.700000000000003</v>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="4">
         <v>31.9</v>
@@ -780,7 +780,7 @@
         <v>41.7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4">
         <v>45.1</v>
@@ -803,7 +803,7 @@
         <v>19.5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C13" s="4">
         <v>12.2</v>
@@ -826,7 +826,7 @@
         <v>22.3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4">
         <v>34.200000000000003</v>
@@ -849,7 +849,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4">
         <v>49.4</v>
@@ -872,7 +872,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C16" s="4">
         <v>31.9</v>
@@ -895,7 +895,7 @@
         <v>6.9</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4">
         <v>20.7</v>
@@ -918,7 +918,7 @@
         <v>20.6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4">
         <v>46</v>
@@ -941,7 +941,7 @@
         <v>32.299999999999997</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C19" s="4">
         <v>29.9</v>
@@ -964,7 +964,7 @@
         <v>39.200000000000003</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4">
         <v>25</v>
@@ -987,7 +987,7 @@
         <v>25.9</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C21" s="4">
         <v>42.2</v>
@@ -1010,7 +1010,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C22" s="4">
         <v>39.799999999999997</v>
@@ -1033,7 +1033,7 @@
         <v>8.1</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C23" s="4">
         <v>36.700000000000003</v>
@@ -1056,7 +1056,7 @@
         <v>28.2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C24" s="4">
         <v>10.6</v>
@@ -1079,7 +1079,7 @@
         <v>5.5</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4">
         <v>23.1</v>
@@ -1102,7 +1102,7 @@
         <v>16.2</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4">
         <v>14.4</v>
@@ -1125,7 +1125,7 @@
         <v>11.2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4">
         <v>16.899999999999999</v>
@@ -1148,7 +1148,7 @@
         <v>39.6</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4">
         <v>18.7</v>
@@ -1171,7 +1171,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C29" s="4">
         <v>11.1</v>
@@ -1194,7 +1194,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4">
         <v>23.9</v>
@@ -1217,7 +1217,7 @@
         <v>13.9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4">
         <v>21.2</v>
@@ -1240,7 +1240,7 @@
         <v>16.2</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C32" s="4">
         <v>22.4</v>
@@ -1263,7 +1263,7 @@
         <v>43.3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C33" s="4">
         <v>45.6</v>
@@ -1286,7 +1286,7 @@
         <v>43.3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C34" s="4">
         <v>49.7</v>
@@ -1309,7 +1309,7 @@
         <v>29.6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" s="4">
         <v>18.2</v>
@@ -1332,7 +1332,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C36" s="4">
         <v>29.9</v>
@@ -1355,7 +1355,7 @@
         <v>32.6</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C37" s="4">
         <v>35</v>
@@ -1378,7 +1378,7 @@
         <v>31.7</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C38" s="4">
         <v>23.4</v>
@@ -1401,7 +1401,7 @@
         <v>10.7</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4">
         <v>10.3</v>
@@ -1424,7 +1424,7 @@
         <v>42.7</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C40" s="4">
         <v>10.1</v>
@@ -1447,7 +1447,7 @@
         <v>22.9</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C41" s="4">
         <v>20.100000000000001</v>
@@ -1470,7 +1470,7 @@
         <v>29.1</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C42" s="4">
         <v>12.3</v>
@@ -1493,7 +1493,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4">
         <v>14</v>
@@ -1516,7 +1516,7 @@
         <v>35.6</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C44" s="4">
         <v>44.6</v>
@@ -1539,7 +1539,7 @@
         <v>9.5</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C45" s="4">
         <v>41.4</v>
@@ -1562,7 +1562,7 @@
         <v>13.6</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C46" s="4">
         <v>40.700000000000003</v>
@@ -1585,7 +1585,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C47" s="4">
         <v>43.6</v>
@@ -1608,7 +1608,7 @@
         <v>25.6</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" s="4">
         <v>11</v>
@@ -1631,7 +1631,7 @@
         <v>33.200000000000003</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" s="4">
         <v>18.899999999999999</v>
@@ -1654,7 +1654,7 @@
         <v>44.3</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4">
         <v>24.9</v>
@@ -1677,7 +1677,7 @@
         <v>35.9</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C51" s="4">
         <v>13.1</v>
@@ -1700,7 +1700,7 @@
         <v>31.1</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C52" s="4">
         <v>34.299999999999997</v>
@@ -1723,7 +1723,7 @@
         <v>9.9</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C53" s="4">
         <v>20.7</v>
@@ -1746,7 +1746,7 @@
         <v>24.2</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4">
         <v>20.100000000000001</v>
@@ -1769,7 +1769,7 @@
         <v>40.799999999999997</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C55" s="4">
         <v>45.8</v>
@@ -1792,7 +1792,7 @@
         <v>11.2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C56" s="4">
         <v>30.7</v>
@@ -1815,7 +1815,7 @@
         <v>29.1</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C57" s="4">
         <v>27.9</v>
@@ -1838,7 +1838,7 @@
         <v>37.700000000000003</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C58" s="4">
         <v>10.199999999999999</v>
@@ -1861,7 +1861,7 @@
         <v>35.700000000000003</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C59" s="4">
         <v>11.4</v>
@@ -1884,7 +1884,7 @@
         <v>23.9</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C60" s="4">
         <v>44.9</v>
@@ -1907,7 +1907,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C61" s="4">
         <v>11.1</v>
@@ -1930,7 +1930,7 @@
         <v>6.3</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C62" s="4">
         <v>21.7</v>
@@ -1953,7 +1953,7 @@
         <v>44.9</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C63" s="4">
         <v>14.2</v>
@@ -1976,7 +1976,7 @@
         <v>43.1</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C64" s="4">
         <v>25.7</v>
@@ -1999,7 +1999,7 @@
         <v>31.3</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C65" s="4">
         <v>39.9</v>
@@ -2022,7 +2022,7 @@
         <v>11.9</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C66" s="4">
         <v>40</v>
@@ -2045,7 +2045,7 @@
         <v>22.5</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C67" s="4">
         <v>22.2</v>
@@ -2068,7 +2068,7 @@
         <v>23.1</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C68" s="4">
         <v>13.9</v>
@@ -2091,7 +2091,7 @@
         <v>31.2</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C69" s="4">
         <v>30</v>
@@ -2114,7 +2114,7 @@
         <v>20</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C70" s="4">
         <v>15.3</v>
@@ -2137,7 +2137,7 @@
         <v>10.3</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C71" s="4">
         <v>42.1</v>
@@ -2160,7 +2160,7 @@
         <v>21.4</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C72" s="4">
         <v>45.1</v>
@@ -2183,7 +2183,7 @@
         <v>26.9</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C73" s="4">
         <v>32.299999999999997</v>
@@ -2206,7 +2206,7 @@
         <v>22.5</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C74" s="4">
         <v>11.8</v>
@@ -2229,7 +2229,7 @@
         <v>40.9</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C75" s="4">
         <v>32</v>
@@ -2252,7 +2252,7 @@
         <v>19</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C76" s="4">
         <v>43.9</v>
@@ -2275,7 +2275,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C77" s="4">
         <v>26.5</v>
@@ -2298,7 +2298,7 @@
         <v>19.899999999999999</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C78" s="4">
         <v>26.1</v>
@@ -2321,7 +2321,7 @@
         <v>27.9</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C79" s="4">
         <v>37.6</v>
@@ -2344,7 +2344,7 @@
         <v>14.6</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C80" s="4">
         <v>45</v>
@@ -2367,7 +2367,7 @@
         <v>33.700000000000003</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C81" s="4">
         <v>22</v>
@@ -2390,7 +2390,7 @@
         <v>15.9</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C82" s="4">
         <v>30.1</v>
@@ -2413,7 +2413,7 @@
         <v>44.8</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C83" s="4">
         <v>31.6</v>
@@ -2436,7 +2436,7 @@
         <v>26.6</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C84" s="4">
         <v>38.700000000000003</v>
@@ -2459,7 +2459,7 @@
         <v>26.7</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C85" s="4">
         <v>41.5</v>
@@ -2482,7 +2482,7 @@
         <v>6.4</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C86" s="4">
         <v>47.4</v>
@@ -2505,7 +2505,7 @@
         <v>12.7</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C87" s="4">
         <v>34.299999999999997</v>
@@ -2528,7 +2528,7 @@
         <v>22.3</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4">
         <v>35.1</v>
@@ -2551,7 +2551,7 @@
         <v>27.1</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C89" s="4">
         <v>46.7</v>
@@ -2574,7 +2574,7 @@
         <v>24.6</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C90" s="4">
         <v>32.200000000000003</v>
@@ -2597,7 +2597,7 @@
         <v>31.2</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C91" s="4">
         <v>28.8</v>
@@ -2620,7 +2620,7 @@
         <v>31.5</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C92" s="4">
         <v>39.299999999999997</v>
@@ -2643,7 +2643,7 @@
         <v>10.7</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C93" s="4">
         <v>37.799999999999997</v>
@@ -2666,7 +2666,7 @@
         <v>35.6</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C94" s="4">
         <v>49.4</v>
@@ -2689,7 +2689,7 @@
         <v>9.9</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C95" s="4">
         <v>23.5</v>
@@ -2712,7 +2712,7 @@
         <v>26.2</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C96" s="4">
         <v>44.3</v>
@@ -2735,7 +2735,7 @@
         <v>29.7</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C97" s="4">
         <v>14.5</v>
@@ -2758,7 +2758,7 @@
         <v>28.9</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C98" s="4">
         <v>39.9</v>
@@ -2781,7 +2781,7 @@
         <v>25.5</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C99" s="4">
         <v>37.799999999999997</v>
@@ -2804,7 +2804,7 @@
         <v>17.5</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4">
         <v>23.3</v>
@@ -2827,7 +2827,7 @@
         <v>12.5</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C101" s="4">
         <v>43.7</v>
